--- a/public/data/net_products.xlsx
+++ b/public/data/net_products.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q42"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,7 +525,7 @@
         <v>2025</v>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -533,46 +533,46 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>744</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>11.52727956929032</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>7.739999999999998</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.78727956929032</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>-5.5</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>-28.71272043070968</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>45.73999999999999</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>-10717658.0736108</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1981842.999867839</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2530007.319867839</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>132446.88</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>-680611.2</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>-8735815.07374296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -580,7 +580,7 @@
         <v>2025</v>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -588,46 +588,46 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>25.41633749944444</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>18.41633749944444</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>-31.08366250055556</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>-12657161.89123788</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>5168662.169635393</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>5700742.169635391</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>115920</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>-648000</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>-7488499.721602493</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -635,7 +635,7 @@
         <v>2025</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -643,46 +643,46 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>744</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>-19.08456720369892</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.050000000000001</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>-23.13456720369892</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>-30.5</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>-30.63456720369892</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>42.05</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>-4645552.676655097</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>-5156849.831854846</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>-4600449.431854847</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>69303.59999999998</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>-625704</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>-9802402.508509941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -690,7 +690,7 @@
         <v>2025</v>
       </c>
       <c r="B5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -698,54 +698,54 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>-24.23242916711111</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9100000000000001</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>-25.14242916711111</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>-30.5</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>-32.64242916711111</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>38.91</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>-3903364.360282851</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>-6163280.778103041</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>-5618046.378103042</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>15069.59999999998</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>-560304</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>-10066645.1383859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B6" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -753,46 +753,46 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>744</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>-25.00186822589247</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.5648400000000002</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>-24.43702822589247</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>-30.5</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>-31.93702822589247</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>37.43516</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>-3855996.780155612</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>-5682082.961897599</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>-5115382.2390176</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>-9665.542079999985</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>-557035.1808</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>-9538079.742053211</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -800,54 +800,54 @@
         <v>2026</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>a1</t>
+          <t>a0</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>744</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>-31.75</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>-33.75</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>-63.1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>32.35</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>2843194.742661166</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>-6945984</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>-5929122</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>40176</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>-1057038</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>-4102789.257338834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -855,54 +855,54 @@
         <v>2026</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>a1</t>
+          <t>a0</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>672</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>-33.91999999999999</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>-35.91999999999999</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>-63.48</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>-2.140000000000001</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>31.7</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>2887596.304339118</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>-6593341.440000002</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>-5721354.240000001</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>36288</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>-908275.2000000001</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>-3705745.135660884</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -910,54 +910,54 @@
         <v>2026</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>a1</t>
+          <t>a0</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>744</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>-31.28000000000001</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>-33.28000000000001</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>-63.13</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>-1.150000000000002</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>2773281.062661167</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>-6876070.319999999</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>-5841352.320000001</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>40176</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>-1074894</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>-4102789.257338834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -965,54 +965,54 @@
         <v>2026</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>a1</t>
+          <t>a0</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>-29.52</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>-31.52</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>-62.21</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.4100000000000001</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>33.1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>2387641.183220482</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>-6358082.399999999</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>-5334854.399999999</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>38880</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>-1062108</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>-3970441.216779517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1020,54 +1020,54 @@
         <v>2026</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>a1</t>
+          <t>a0</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>744</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-29.45</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-31.45</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-61.59</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1.039999999999999</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>31.1</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>2424955.142661168</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>-6527744.400000002</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>-5499610.800000001</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>40176</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>-1068309.6</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>-4102789.257338834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1075,54 +1075,54 @@
         <v>2026</v>
       </c>
       <c r="B12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>a1</t>
+          <t>a0</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>-29.25</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>-31.25</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>-61.32</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>2.169999999999998</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>29.9</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>2300182.783220482</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>-6270624</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>-5286060.000000001</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>38880</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>-1023444</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>-3970441.216779517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1130,54 +1130,54 @@
         <v>2026</v>
       </c>
       <c r="B13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>a1</t>
+          <t>a0</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>744</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-29.84</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>-31.84</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>-61.26</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>2.119999999999997</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>29.3</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>2465644.502661167</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>-6568433.76</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>-5572440.96</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>40176</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>-1036168.8</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>-4102789.257338834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1185,54 +1185,54 @@
         <v>2026</v>
       </c>
       <c r="B14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>a1</t>
+          <t>a0</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>744</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-31.46</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-33.46</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-61.61</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1.529999999999998</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>28.62</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>2730039.782661167</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>-6832829.040000001</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>-5874966.24</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>40176</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>-998038.7999999999</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>-4102789.257338834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1240,54 +1240,54 @@
         <v>2026</v>
       </c>
       <c r="B15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>a1</t>
+          <t>a0</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>-33.13</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>-35.13</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>-62.23</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>-0.1000000000000014</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>29.2</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>2921492.383220483</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>-6891933.6</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>-5987253.6</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>38880</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>-943560</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>-3970441.216779517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1295,54 +1295,54 @@
         <v>2026</v>
       </c>
       <c r="B16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>a1</t>
+          <t>a0</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>744</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>-33.37</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>-35.37</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>-62.54</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>-1.23</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>30.4</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>3074444.822661167</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>-7177234.08</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>-6231647.279999999</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>40176</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>-985762.8</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>-4102789.257338834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1350,62 +1350,62 @@
         <v>2026</v>
       </c>
       <c r="B17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>a1</t>
+          <t>a0</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-31.82</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-33.82</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>-62.5</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>-1.120000000000001</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>31.8</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>2743285.183220483</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>-6713726.4</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>-5750510.399999999</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>38880</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>-1002096</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>-3970441.216779517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="B18" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1413,46 +1413,46 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>744</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>-32.18</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>-34.18</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>-62.71</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>-1.07</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>31.6</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>2896561.862661166</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>-6999351.120000001</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>-6009421.92</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>40176</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>-1030105.2</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>-4102789.257338834</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1460,54 +1460,54 @@
         <v>2027</v>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>a2</t>
+          <t>a1</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>744</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>41.9</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>34.9</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>39.9</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>-8696402.502810143</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>5978784</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>6546456</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>156240</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>-723912</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>-2717618.502810144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1515,54 +1515,54 @@
         <v>2027</v>
       </c>
       <c r="B20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>a2</t>
+          <t>a1</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>672</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>41.9</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>34.9</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>39.9</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>-7854815.163828517</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>5400192</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>5912928</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>141120</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>-653856</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>-2454623.163828517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1570,54 +1570,54 @@
         <v>2027</v>
       </c>
       <c r="B21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>a2</t>
+          <t>a1</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>744</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>41.9</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>34.9</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>39.9</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>-8696402.502810143</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>5978784</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>6546456</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>156240</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>-723912</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>-2717618.502810144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1625,54 +1625,54 @@
         <v>2027</v>
       </c>
       <c r="B22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>a2</t>
+          <t>a1</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>41.9</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>34.9</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>39.9</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>-8415873.389816269</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>5785920</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>6335280</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>151200</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>-700560</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>-2629953.389816268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1680,54 +1680,54 @@
         <v>2027</v>
       </c>
       <c r="B23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>a2</t>
+          <t>a1</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>744</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>41.9</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>34.9</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>39.9</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>-8696402.502810143</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>5978784</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>6546456</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>156240</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>-723912</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>-2717618.502810144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1735,54 +1735,54 @@
         <v>2027</v>
       </c>
       <c r="B24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>a2</t>
+          <t>a1</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>41.9</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>34.9</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>39.9</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>-8415873.389816269</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>5785920</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>6335280</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>151200</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>-700560</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>-2629953.389816268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1790,54 +1790,54 @@
         <v>2027</v>
       </c>
       <c r="B25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>a2</t>
+          <t>a1</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>744</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>41.9</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>34.9</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>39.9</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>-8696402.502810143</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>5978784</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>6546456</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>156240</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>-723912</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>-2717618.502810144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1845,54 +1845,54 @@
         <v>2027</v>
       </c>
       <c r="B26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>a2</t>
+          <t>a1</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>744</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>41.9</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>34.9</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>39.9</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>-8696402.502810143</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>5978784</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>6546456</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>156240</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>-723912</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>-2717618.502810144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1900,54 +1900,54 @@
         <v>2027</v>
       </c>
       <c r="B27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>a2</t>
+          <t>a1</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>41.9</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>34.9</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>39.9</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>-8415873.389816269</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>5785920</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>6335280</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>151200</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>-700560</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>-2629953.389816268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1955,54 +1955,54 @@
         <v>2027</v>
       </c>
       <c r="B28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>a2</t>
+          <t>a1</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>744</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>41.9</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>34.9</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>39.9</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>-8696402.502810143</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>5978784</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>6546456</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>156240</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>-723912</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>-2717618.502810144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2010,62 +2010,62 @@
         <v>2027</v>
       </c>
       <c r="B29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>a2</t>
+          <t>a1</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>41.9</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>34.9</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>39.9</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>-8415873.389816269</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>5785920</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>6335280</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>151200</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>-700560</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>-2629953.389816268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="B30" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -2073,46 +2073,46 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>744</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>41.9</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>34.9</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>39.9</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>-8696402.502810143</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>5978784</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>6546456</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>156240</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>-723912</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>-2717618.502810144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2120,54 +2120,54 @@
         <v>2028</v>
       </c>
       <c r="B31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>a3</t>
+          <t>a2</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>744</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>41.9</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>34.9</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>39.9</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>-8713164.435965575</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>5553588</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>5767116</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>161448</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>-374976</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>-3159576.435965576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -2175,54 +2175,54 @@
         <v>2028</v>
       </c>
       <c r="B32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>a3</t>
+          <t>a2</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>696</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>41.9</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>34.9</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>39.9</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>-8151024.794935538</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>5195292</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>5395044</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>151032</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>-350784</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>-2955732.794935538</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -2230,54 +2230,54 @@
         <v>2028</v>
       </c>
       <c r="B33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>a3</t>
+          <t>a2</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>744</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>41.9</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>34.9</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>39.9</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>-8713164.435965575</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>5553588</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>5767116</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>161448</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>-374976</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>-3159576.435965576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -2285,54 +2285,54 @@
         <v>2028</v>
       </c>
       <c r="B34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>a3</t>
+          <t>a2</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>41.9</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>34.9</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>39.9</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>-8432094.615450557</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>5374440</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>5581080</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>156240</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>-362880</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>-3057654.615450557</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -2340,54 +2340,54 @@
         <v>2028</v>
       </c>
       <c r="B35" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>a3</t>
+          <t>a2</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>744</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>41.9</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>34.9</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>39.9</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>-8713164.435965575</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>5553588</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>5767116</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>161448</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>-374976</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>-3159576.435965576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -2395,54 +2395,54 @@
         <v>2028</v>
       </c>
       <c r="B36" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>a3</t>
+          <t>a2</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>41.9</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>34.9</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>39.9</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>-8432094.615450557</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>5374440</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>5581080</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>156240</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>-362880</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>-3057654.615450557</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -2450,54 +2450,54 @@
         <v>2028</v>
       </c>
       <c r="B37" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>a3</t>
+          <t>a2</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>744</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>41.9</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>34.9</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>39.9</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>-8713164.435965575</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>5553588</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>5767116</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>161448</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>-374976</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>-3159576.435965576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -2505,54 +2505,54 @@
         <v>2028</v>
       </c>
       <c r="B38" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>a3</t>
+          <t>a2</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>744</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>41.9</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>34.9</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>39.9</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>-8713164.435965575</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>5553588</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>5767116</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>161448</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>-374976</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>-3159576.435965576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2560,54 +2560,54 @@
         <v>2028</v>
       </c>
       <c r="B39" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>a3</t>
+          <t>a2</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>41.9</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>34.9</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>39.9</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>-8432094.615450557</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>5374440</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>5581080</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>156240</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>-362880</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>-3057654.615450557</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -2615,54 +2615,54 @@
         <v>2028</v>
       </c>
       <c r="B40" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>a3</t>
+          <t>a2</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>744</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>41.9</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>34.9</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>39.9</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>-8713164.435965575</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>5553588</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>5767116</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>161448</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>-374976</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>-3159576.435965576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -2670,109 +2670,54 @@
         <v>2028</v>
       </c>
       <c r="B41" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>a3</t>
+          <t>a2</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>720</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>41.9</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>34.9</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>39.9</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>-8432094.615450557</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>5374440</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>5581080</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>156240</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>-362880</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>-3057654.615450557</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>2028</v>
-      </c>
-      <c r="B42" t="n">
-        <v>12</v>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>a3</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>744</v>
-      </c>
-      <c r="E42" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="F42" t="n">
-        <v>7</v>
-      </c>
-      <c r="G42" t="n">
-        <v>34.9</v>
-      </c>
-      <c r="H42" t="n">
-        <v>-5</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>39.9</v>
-      </c>
-      <c r="K42" t="n">
-        <v>7</v>
-      </c>
-      <c r="L42" t="n">
-        <v>-8713164.435965575</v>
-      </c>
-      <c r="M42" t="n">
-        <v>5553588</v>
-      </c>
-      <c r="N42" t="n">
-        <v>5767116</v>
-      </c>
-      <c r="O42" t="n">
-        <v>161448</v>
-      </c>
-      <c r="P42" t="n">
-        <v>-374976</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>-3159576.435965576</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/net_products.xlsx
+++ b/public/data/net_products.xlsx
@@ -533,46 +533,46 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>25.41633749944444</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>18.41633749944444</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-31.08366250055556</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>-12677810.61418092</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>4445455.5358912</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>4977535.535891199</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>115920</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>-648000</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>-8232355.078289717</v>
       </c>
     </row>
     <row r="3">
@@ -588,46 +588,46 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>744</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-11.08456720369892</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.050000000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-15.13456720369892</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-22.5</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-30.63456720369892</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>42.05</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-6449528.570362898</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-3030475.7998656</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-2474075.399865601</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>69303.59999999998</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-625704</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>-9480004.370228494</v>
       </c>
     </row>
     <row r="4">
@@ -643,46 +643,46 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-16.23242916711111</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.9100000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-17.14242916711111</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-22.5</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>-32.64242916711111</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>38.91</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>-5752093.083225883</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>-4215061.986100478</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>-3669827.586100478</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>15069.59999999998</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>-560304</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>-9967155.069326365</v>
       </c>
     </row>
     <row r="5">
@@ -698,46 +698,46 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>744</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>-25.00186822589247</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>-0.5648400000000002</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>-24.43702822589247</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>-30.5</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>-31.93702822589247</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>37.43516</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>-3877333.793863412</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>-5719285.741817728</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>-5152585.018937729</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>-9665.542079999985</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>-557035.1808</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>-9596619.535681136</v>
       </c>
     </row>
     <row r="6">
@@ -753,46 +753,46 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>744</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-21.45</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-23.45</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>-63.1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>9.299999999999997</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>32.35</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1345235.814203487</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>-5651758.800000001</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>-4005658.800000001</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>40176</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>-1686276</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>-4306522.985796515</v>
       </c>
     </row>
     <row r="7">
@@ -808,46 +808,46 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>672</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>-23.24</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>-25.24</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>-63.48</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>31.7</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1472891.383151536</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>-5362654.080000001</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>-3919937.280000002</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>36288</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>-1479004.8</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>-3889762.696848463</v>
       </c>
     </row>
     <row r="8">
@@ -863,46 +863,46 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>744</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>-20.93</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>-22.93</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>-63.13</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1274540.934203486</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>-5581063.919999999</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>-3908551.920000001</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>40176</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>-1712688</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>-4306522.985796515</v>
       </c>
     </row>
     <row r="9">
@@ -918,46 +918,46 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>-19.41</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>-21.41</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>-62.21</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>33.1</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>975652.3105195034</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>-5143255.199999999</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>-3507775.199999999</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>38880</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>-1674360</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>-4167602.889480497</v>
       </c>
     </row>
     <row r="10">
@@ -973,46 +973,46 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>744</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>-19.83000000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>-21.83000000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>-61.59</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>10.66</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>31.1</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1022324.934203486</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>-5328847.920000001</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>-3703133.520000001</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>40176</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>-1665890.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>-4306522.985796515</v>
       </c>
     </row>
     <row r="11">
@@ -1028,46 +1028,46 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-61.32</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.42</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>29.9</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>987381.1105195042</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>-5154984</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>-3614400.000000002</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>38880</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>-1579464</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>-4167602.889480497</v>
       </c>
     </row>
     <row r="12">
@@ -1083,46 +1083,46 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>744</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>-20.58</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>-22.58</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>-61.26</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>11.38</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>29.3</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1100779.734203487</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>-5407302.72</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>-3843191.519999998</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>40176</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>-1604287.2</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>-4306522.985796515</v>
       </c>
     </row>
     <row r="13">
@@ -1138,46 +1138,46 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>744</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>-22.01</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-24.01</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>-61.61</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>10.98</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>28.62</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1327052.454203486</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>-5633575.440000001</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>-4110235.439999999</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>40176</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>-1563516</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>-4306522.985796515</v>
       </c>
     </row>
     <row r="14">
@@ -1193,46 +1193,46 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-23.13</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-25.13</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-62.23</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>9.899999999999999</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>29.2</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1484490.710519504</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>-5652093.6</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>-4180053.6</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>38880</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>-1510920</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>-4167602.889480497</v>
       </c>
     </row>
     <row r="15">
@@ -1248,46 +1248,46 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>744</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>-23</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>-62.54</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>9.139999999999997</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>30.4</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1543474.614203487</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>-5849997.6</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>-4295112</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>40176</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>-1595061.6</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>-4306522.985796515</v>
       </c>
     </row>
     <row r="16">
@@ -1303,46 +1303,46 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>-21.48</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>-23.48</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>-62.5</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>9.219999999999999</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>31.8</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1281486.710519504</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>-5449089.6</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>-3881865.6</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>38880</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>-1606104</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>-4167602.889480497</v>
       </c>
     </row>
     <row r="17">
@@ -1358,46 +1358,46 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>744</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>-21.85</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-23.85</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-62.71</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>9.259999999999998</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>31.6</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1385411.814203485</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>-5691934.800000001</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>-4080356.400000001</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>40176</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>-1651754.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>-4306522.985796515</v>
       </c>
     </row>
     <row r="18">
@@ -1413,46 +1413,46 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>744</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>6.549999999999997</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>-0.4500000000000028</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>-35.1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>19.3</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>22.35</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>-3216942.72320749</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>476718</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1023372</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>156240</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>-702894</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>-2740224.723207489</v>
       </c>
     </row>
     <row r="19">
@@ -1468,46 +1468,46 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>672</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>4.760000000000005</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>-2.239999999999995</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>-35.48</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>18.54</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>21.7</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-2674155.285477732</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>199113.6000000006</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>671731.2000000002</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>141120</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>-613737.6</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>-2475041.685477732</v>
       </c>
     </row>
     <row r="20">
@@ -1523,46 +1523,46 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>744</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>7.069999999999993</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.06999999999999318</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-35.13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>19.2</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>-3287585.52320749</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>547360.7999999998</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1104616.8</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>156240</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>-713496</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>-2740224.723207489</v>
       </c>
     </row>
     <row r="21">
@@ -1578,46 +1578,46 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>8.590000000000003</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1.590000000000003</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>-34.21</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>19.7</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>23.1</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>-3402358.37729757</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>750528</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1298808</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>151200</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>-699480</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>-2651830.37729757</v>
       </c>
     </row>
     <row r="22">
@@ -1633,46 +1633,46 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>744</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>8.169999999999995</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1.169999999999995</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>-33.59</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>20.66</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>21.1</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>-3473064.723207491</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>732840</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1276480.800000001</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>156240</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>-699880.8</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>-2740224.723207489</v>
       </c>
     </row>
     <row r="23">
@@ -1688,46 +1688,46 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>-33.32</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>21.42</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>19.9</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>-3345982.37729757</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>694152</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1209600</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>151200</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>-666648</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>-2651830.37729757</v>
       </c>
     </row>
     <row r="24">
@@ -1743,46 +1743,46 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>744</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>7.420000000000002</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.4200000000000017</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>-33.26</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>21.38</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>19.3</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>-3378651.123207489</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>638426.3999999994</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1159300.8</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>156240</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>-677114.4</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>-2740224.723207489</v>
       </c>
     </row>
     <row r="25">
@@ -1798,46 +1798,46 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>744</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>5.990000000000002</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>-1.009999999999998</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>-33.61</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>20.98</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>18.62</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>-3173827.92320749</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>433603.1999999993</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>935877.5999999996</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>156240</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>-658514.4</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>-2740224.723207489</v>
       </c>
     </row>
     <row r="26">
@@ -1853,46 +1853,46 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>4.870000000000005</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-2.129999999999995</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>-34.23</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>19.9</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>19.2</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>-2907214.37729757</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>255384</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>736344</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>151200</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>-632160</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>-2651830.37729757</v>
       </c>
     </row>
     <row r="27">
@@ -1908,46 +1908,46 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>744</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>-34.54</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>19.14</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>20.4</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>-3013421.52320749</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>273196.8000000007</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>781200</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>156240</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>-664243.2</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>-2740224.723207489</v>
       </c>
     </row>
     <row r="28">
@@ -1963,46 +1963,46 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>6.519999999999996</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>-0.480000000000004</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>-34.5</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>19.22</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>21.8</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>-3119686.37729757</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>467856</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>985824</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>151200</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>-669168</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>-2651830.37729757</v>
       </c>
     </row>
     <row r="29">
@@ -2018,46 +2018,46 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>744</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>6.149999999999999</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-0.8500000000000014</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>-34.71</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>19.26</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>21.6</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>-3168991.923207491</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>428767.1999999993</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>960875.9999999981</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>156240</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>-688348.8</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>-2740224.723207489</v>
       </c>
     </row>
     <row r="30">
@@ -2073,46 +2073,46 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>744</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>6.549999999999997</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>-0.4500000000000028</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>-35.1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>19.3</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>22.35</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>-3773297.028858003</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>684591.5999999996</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>916161.5999999996</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>161448</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>-393018</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>-3088705.428858003</v>
       </c>
     </row>
     <row r="31">
@@ -2128,46 +2128,46 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>696</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>4.760000000000005</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>-2.239999999999995</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>-35.48</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>18.54</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>21.7</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>-3307716.190867164</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>418282.0799999991</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>622836.4800000004</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>151032</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>-355586.4</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>-2889434.110867164</v>
       </c>
     </row>
     <row r="32">
@@ -2183,46 +2183,46 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>744</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>7.069999999999993</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.06999999999999318</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>-35.13</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>19.2</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>-3839520.468858003</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>750815.0399999991</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>988895.0399999991</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>161448</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>-399528</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>-3088705.428858003</v>
       </c>
     </row>
     <row r="33">
@@ -2238,46 +2238,46 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>8.590000000000003</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>1.590000000000003</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>-34.21</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>19.7</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>23.1</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>-3916732.169862583</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>927662.4000000004</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1162742.4</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>156240</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>-391320</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>-2989069.769862582</v>
       </c>
     </row>
     <row r="34">
@@ -2293,46 +2293,46 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>744</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>8.169999999999995</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>1.169999999999995</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>-33.59</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>20.66</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>21.1</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>-4003721.268858002</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>915015.8399999999</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>1142754.239999999</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>161448</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>-389186.4</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>-3088705.428858003</v>
       </c>
     </row>
     <row r="35">
@@ -2348,46 +2348,46 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>-33.32</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>21.42</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>19.9</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>-3859045.769862585</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>869976</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1082880</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>156240</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>-369144</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>-2989069.769862582</v>
       </c>
     </row>
     <row r="36">
@@ -2403,46 +2403,46 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>744</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>7.420000000000002</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>0.4200000000000017</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>-33.26</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>21.38</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>19.3</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>-3913548.468858003</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>824843.0399999991</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1037850.239999999</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>161448</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>-374455.2</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>-3088705.428858003</v>
       </c>
     </row>
     <row r="37">
@@ -2458,46 +2458,46 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>744</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>5.990000000000002</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>-1.009999999999998</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>-33.61</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>20.98</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>18.62</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>-3724096.308858001</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>635390.8799999999</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>837833.2800000003</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>161448</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>-363890.4</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>-3088705.428858003</v>
       </c>
     </row>
     <row r="38">
@@ -2513,46 +2513,46 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>4.870000000000005</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-2.129999999999995</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>-34.23</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>19.9</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>19.2</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>-3453872.969862583</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>464803.2000000002</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>659203.2000000002</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>156240</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>-350640</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>-2989069.769862582</v>
       </c>
     </row>
     <row r="39">
@@ -2568,46 +2568,46 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>744</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>-34.54</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>19.14</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>20.4</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>-3579447.828858003</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>490742.4000000004</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>699359.9999999991</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>161448</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>-370065.6</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>-3088705.428858003</v>
       </c>
     </row>
     <row r="40">
@@ -2623,46 +2623,46 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>720</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>6.519999999999996</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>-0.480000000000004</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>-34.5</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>19.22</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>21.8</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>-3654032.969862584</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>664963.2000000002</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>882547.2000000002</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>156240</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>-373824</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>-2989069.769862582</v>
       </c>
     </row>
     <row r="41">
@@ -2678,46 +2678,46 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>744</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>6.149999999999999</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-0.8500000000000014</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>-34.71</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>19.26</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>21.6</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>-3726015.828858003</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>637310.3999999994</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>860212.7999999998</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>161448</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>-384350.4</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>-3088705.428858003</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/net_products.xlsx
+++ b/public/data/net_products.xlsx
@@ -560,10 +560,10 @@
         <v>-12677810.61418092</v>
       </c>
       <c r="M2" t="n">
-        <v>4445455.5358912</v>
+        <v>4335656.957893601</v>
       </c>
       <c r="N2" t="n">
-        <v>4977535.535891199</v>
+        <v>4867736.9578936</v>
       </c>
       <c r="O2" t="n">
         <v>115920</v>
@@ -572,7 +572,7 @@
         <v>-648000</v>
       </c>
       <c r="Q2" t="n">
-        <v>-8232355.078289717</v>
+        <v>-8342153.656287315</v>
       </c>
     </row>
     <row r="3">
@@ -591,16 +591,16 @@
         <v>744</v>
       </c>
       <c r="E3" t="n">
-        <v>-11.08456720369892</v>
+        <v>1.915432796301079</v>
       </c>
       <c r="F3" t="n">
         <v>4.050000000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>-15.13456720369892</v>
+        <v>-2.134567203698921</v>
       </c>
       <c r="H3" t="n">
-        <v>-22.5</v>
+        <v>-9.5</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -612,13 +612,13 @@
         <v>42.05</v>
       </c>
       <c r="L3" t="n">
-        <v>-6449528.570362898</v>
+        <v>-9341285.450362897</v>
       </c>
       <c r="M3" t="n">
-        <v>-3030475.7998656</v>
+        <v>-168778.0958781447</v>
       </c>
       <c r="N3" t="n">
-        <v>-2474075.399865601</v>
+        <v>387622.3041218542</v>
       </c>
       <c r="O3" t="n">
         <v>69303.59999999998</v>
@@ -627,7 +627,7 @@
         <v>-625704</v>
       </c>
       <c r="Q3" t="n">
-        <v>-9480004.370228494</v>
+        <v>-9510063.546241041</v>
       </c>
     </row>
     <row r="4">
@@ -646,16 +646,16 @@
         <v>720</v>
       </c>
       <c r="E4" t="n">
-        <v>-16.23242916711111</v>
+        <v>-9.232429167111111</v>
       </c>
       <c r="F4" t="n">
         <v>0.9100000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>-17.14242916711111</v>
+        <v>-10.14242916711111</v>
       </c>
       <c r="H4" t="n">
-        <v>-22.5</v>
+        <v>-15.5</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -667,13 +667,13 @@
         <v>38.91</v>
       </c>
       <c r="L4" t="n">
-        <v>-5752093.083225883</v>
+        <v>-7353661.083225883</v>
       </c>
       <c r="M4" t="n">
-        <v>-4215061.986100478</v>
+        <v>-2619207.28809984</v>
       </c>
       <c r="N4" t="n">
-        <v>-3669827.586100478</v>
+        <v>-2073972.88809984</v>
       </c>
       <c r="O4" t="n">
         <v>15069.59999999998</v>
@@ -682,7 +682,7 @@
         <v>-560304</v>
       </c>
       <c r="Q4" t="n">
-        <v>-9967155.069326365</v>
+        <v>-9972868.371325726</v>
       </c>
     </row>
     <row r="5">
@@ -725,10 +725,10 @@
         <v>-3877333.793863412</v>
       </c>
       <c r="M5" t="n">
-        <v>-5719285.741817728</v>
+        <v>-5738073.145677392</v>
       </c>
       <c r="N5" t="n">
-        <v>-5152585.018937729</v>
+        <v>-5171372.422797393</v>
       </c>
       <c r="O5" t="n">
         <v>-9665.542079999985</v>
@@ -737,7 +737,7 @@
         <v>-557035.1808</v>
       </c>
       <c r="Q5" t="n">
-        <v>-9596619.535681136</v>
+        <v>-9615406.939540802</v>
       </c>
     </row>
     <row r="6">
@@ -777,13 +777,13 @@
         <v>32.35</v>
       </c>
       <c r="L6" t="n">
-        <v>1345235.814203487</v>
+        <v>1318935.414203487</v>
       </c>
       <c r="M6" t="n">
-        <v>-5651758.800000001</v>
+        <v>-5635800</v>
       </c>
       <c r="N6" t="n">
-        <v>-4005658.800000001</v>
+        <v>-3989700</v>
       </c>
       <c r="O6" t="n">
         <v>40176</v>
@@ -792,7 +792,7 @@
         <v>-1686276</v>
       </c>
       <c r="Q6" t="n">
-        <v>-4306522.985796515</v>
+        <v>-4316864.585796515</v>
       </c>
     </row>
     <row r="7">
@@ -832,13 +832,13 @@
         <v>31.7</v>
       </c>
       <c r="L7" t="n">
-        <v>1472891.383151536</v>
+        <v>1447933.303151536</v>
       </c>
       <c r="M7" t="n">
-        <v>-5362654.080000001</v>
+        <v>-5347036.8</v>
       </c>
       <c r="N7" t="n">
-        <v>-3919937.280000002</v>
+        <v>-3904320</v>
       </c>
       <c r="O7" t="n">
         <v>36288</v>
@@ -847,7 +847,7 @@
         <v>-1479004.8</v>
       </c>
       <c r="Q7" t="n">
-        <v>-3889762.696848463</v>
+        <v>-3899103.496848463</v>
       </c>
     </row>
     <row r="8">
@@ -887,13 +887,13 @@
         <v>33</v>
       </c>
       <c r="L8" t="n">
-        <v>1274540.934203486</v>
+        <v>1248627.414203487</v>
       </c>
       <c r="M8" t="n">
-        <v>-5581063.919999999</v>
+        <v>-5565492</v>
       </c>
       <c r="N8" t="n">
-        <v>-3908551.920000001</v>
+        <v>-3892980</v>
       </c>
       <c r="O8" t="n">
         <v>40176</v>
@@ -902,7 +902,7 @@
         <v>-1712688</v>
       </c>
       <c r="Q8" t="n">
-        <v>-4306522.985796515</v>
+        <v>-4316864.585796515</v>
       </c>
     </row>
     <row r="9">
@@ -942,13 +942,13 @@
         <v>33.1</v>
       </c>
       <c r="L9" t="n">
-        <v>975652.3105195034</v>
+        <v>951669.1105195042</v>
       </c>
       <c r="M9" t="n">
-        <v>-5143255.199999999</v>
+        <v>-5129280</v>
       </c>
       <c r="N9" t="n">
-        <v>-3507775.199999999</v>
+        <v>-3493800</v>
       </c>
       <c r="O9" t="n">
         <v>38880</v>
@@ -957,7 +957,7 @@
         <v>-1674360</v>
       </c>
       <c r="Q9" t="n">
-        <v>-4167602.889480497</v>
+        <v>-4177610.889480497</v>
       </c>
     </row>
     <row r="10">
@@ -997,13 +997,13 @@
         <v>31.1</v>
       </c>
       <c r="L10" t="n">
-        <v>1022324.934203486</v>
+        <v>997229.8142034872</v>
       </c>
       <c r="M10" t="n">
-        <v>-5328847.920000001</v>
+        <v>-5314094.4</v>
       </c>
       <c r="N10" t="n">
-        <v>-3703133.520000001</v>
+        <v>-3688380</v>
       </c>
       <c r="O10" t="n">
         <v>40176</v>
@@ -1012,7 +1012,7 @@
         <v>-1665890.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>-4306522.985796515</v>
+        <v>-4316864.585796515</v>
       </c>
     </row>
     <row r="11">
@@ -1052,13 +1052,13 @@
         <v>29.9</v>
       </c>
       <c r="L11" t="n">
-        <v>987381.1105195042</v>
+        <v>962973.1105195042</v>
       </c>
       <c r="M11" t="n">
-        <v>-5154984</v>
+        <v>-5140584</v>
       </c>
       <c r="N11" t="n">
-        <v>-3614400.000000002</v>
+        <v>-3600000</v>
       </c>
       <c r="O11" t="n">
         <v>38880</v>
@@ -1067,7 +1067,7 @@
         <v>-1579464</v>
       </c>
       <c r="Q11" t="n">
-        <v>-4167602.889480497</v>
+        <v>-4177610.889480497</v>
       </c>
     </row>
     <row r="12">
@@ -1107,13 +1107,13 @@
         <v>29.3</v>
       </c>
       <c r="L12" t="n">
-        <v>1100779.734203487</v>
+        <v>1075126.614203486</v>
       </c>
       <c r="M12" t="n">
-        <v>-5407302.72</v>
+        <v>-5391991.2</v>
       </c>
       <c r="N12" t="n">
-        <v>-3843191.519999998</v>
+        <v>-3827880</v>
       </c>
       <c r="O12" t="n">
         <v>40176</v>
@@ -1122,7 +1122,7 @@
         <v>-1604287.2</v>
       </c>
       <c r="Q12" t="n">
-        <v>-4306522.985796515</v>
+        <v>-4316864.585796515</v>
       </c>
     </row>
     <row r="13">
@@ -1162,13 +1162,13 @@
         <v>28.62</v>
       </c>
       <c r="L13" t="n">
-        <v>1327052.454203486</v>
+        <v>1300335.414203487</v>
       </c>
       <c r="M13" t="n">
-        <v>-5633575.440000001</v>
+        <v>-5617200</v>
       </c>
       <c r="N13" t="n">
-        <v>-4110235.439999999</v>
+        <v>-4093860</v>
       </c>
       <c r="O13" t="n">
         <v>40176</v>
@@ -1177,7 +1177,7 @@
         <v>-1563516</v>
       </c>
       <c r="Q13" t="n">
-        <v>-4306522.985796515</v>
+        <v>-4316864.585796515</v>
       </c>
     </row>
     <row r="14">
@@ -1217,13 +1217,13 @@
         <v>29.2</v>
       </c>
       <c r="L14" t="n">
-        <v>1484490.710519504</v>
+        <v>1457829.110519504</v>
       </c>
       <c r="M14" t="n">
-        <v>-5652093.6</v>
+        <v>-5635440</v>
       </c>
       <c r="N14" t="n">
-        <v>-4180053.6</v>
+        <v>-4163400</v>
       </c>
       <c r="O14" t="n">
         <v>38880</v>
@@ -1232,7 +1232,7 @@
         <v>-1510920</v>
       </c>
       <c r="Q14" t="n">
-        <v>-4167602.889480497</v>
+        <v>-4177610.889480497</v>
       </c>
     </row>
     <row r="15">
@@ -1272,13 +1272,13 @@
         <v>30.4</v>
       </c>
       <c r="L15" t="n">
-        <v>1543474.614203487</v>
+        <v>1516021.014203486</v>
       </c>
       <c r="M15" t="n">
-        <v>-5849997.6</v>
+        <v>-5832885.6</v>
       </c>
       <c r="N15" t="n">
-        <v>-4295112</v>
+        <v>-4278000</v>
       </c>
       <c r="O15" t="n">
         <v>40176</v>
@@ -1287,7 +1287,7 @@
         <v>-1595061.6</v>
       </c>
       <c r="Q15" t="n">
-        <v>-4306522.985796515</v>
+        <v>-4316864.585796515</v>
       </c>
     </row>
     <row r="16">
@@ -1327,13 +1327,13 @@
         <v>31.8</v>
       </c>
       <c r="L16" t="n">
-        <v>1281486.710519504</v>
+        <v>1256013.110519504</v>
       </c>
       <c r="M16" t="n">
-        <v>-5449089.6</v>
+        <v>-5433624</v>
       </c>
       <c r="N16" t="n">
-        <v>-3881865.6</v>
+        <v>-3866400</v>
       </c>
       <c r="O16" t="n">
         <v>38880</v>
@@ -1342,7 +1342,7 @@
         <v>-1606104</v>
       </c>
       <c r="Q16" t="n">
-        <v>-4167602.889480497</v>
+        <v>-4177610.889480497</v>
       </c>
     </row>
     <row r="17">
@@ -1382,13 +1382,13 @@
         <v>31.6</v>
       </c>
       <c r="L17" t="n">
-        <v>1385411.814203485</v>
+        <v>1358813.814203487</v>
       </c>
       <c r="M17" t="n">
-        <v>-5691934.800000001</v>
+        <v>-5675678.4</v>
       </c>
       <c r="N17" t="n">
-        <v>-4080356.400000001</v>
+        <v>-4064100</v>
       </c>
       <c r="O17" t="n">
         <v>40176</v>
@@ -1397,7 +1397,7 @@
         <v>-1651754.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>-4306522.985796515</v>
+        <v>-4316864.585796515</v>
       </c>
     </row>
     <row r="18">

--- a/public/data/net_products.xlsx
+++ b/public/data/net_products.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,7 +525,7 @@
         <v>2025</v>
       </c>
       <c r="B2" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -536,43 +536,43 @@
         <v>720</v>
       </c>
       <c r="E2" t="n">
-        <v>25.41633749944444</v>
+        <v>-10.14242916711111</v>
       </c>
       <c r="F2" t="n">
-        <v>7</v>
+        <v>-16</v>
       </c>
       <c r="G2" t="n">
-        <v>18.41633749944444</v>
+        <v>5.857570832888889</v>
       </c>
       <c r="H2" t="n">
-        <v>11.5</v>
+        <v>0.5</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>-31.08366250055556</v>
+        <v>-32.64242916711111</v>
       </c>
       <c r="K2" t="n">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="L2" t="n">
-        <v>-12677810.61418092</v>
+        <v>-8378510.365795152</v>
       </c>
       <c r="M2" t="n">
-        <v>4335656.957893601</v>
+        <v>-2684894.11209216</v>
       </c>
       <c r="N2" t="n">
-        <v>4867736.9578936</v>
+        <v>-2103134.112092161</v>
       </c>
       <c r="O2" t="n">
-        <v>115920</v>
+        <v>-264960</v>
       </c>
       <c r="P2" t="n">
-        <v>-648000</v>
+        <v>-316800</v>
       </c>
       <c r="Q2" t="n">
-        <v>-8342153.656287315</v>
+        <v>-11063404.47788731</v>
       </c>
     </row>
     <row r="3">
@@ -580,7 +580,7 @@
         <v>2025</v>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -591,51 +591,51 @@
         <v>744</v>
       </c>
       <c r="E3" t="n">
-        <v>1.915432796301079</v>
+        <v>-38.43702822589247</v>
       </c>
       <c r="F3" t="n">
-        <v>4.050000000000001</v>
+        <v>-16</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.134567203698921</v>
+        <v>-22.43702822589247</v>
       </c>
       <c r="H3" t="n">
-        <v>-9.5</v>
+        <v>-28.5</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>-30.63456720369892</v>
+        <v>-31.93702822589247</v>
       </c>
       <c r="K3" t="n">
-        <v>42.05</v>
+        <v>22</v>
       </c>
       <c r="L3" t="n">
-        <v>-9341285.450362897</v>
+        <v>-1836944.814424032</v>
       </c>
       <c r="M3" t="n">
-        <v>-168778.0958781447</v>
+        <v>-7064107.674014464</v>
       </c>
       <c r="N3" t="n">
-        <v>387622.3041218542</v>
+        <v>-6462955.674014464</v>
       </c>
       <c r="O3" t="n">
-        <v>69303.59999999998</v>
+        <v>-273792</v>
       </c>
       <c r="P3" t="n">
-        <v>-625704</v>
+        <v>-327360</v>
       </c>
       <c r="Q3" t="n">
-        <v>-9510063.546241041</v>
+        <v>-8901052.488438496</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B4" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -643,54 +643,54 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>720</v>
+        <v>744</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.232429167111111</v>
+        <v>-30.45</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9100000000000001</v>
+        <v>-15</v>
       </c>
       <c r="G4" t="n">
-        <v>-10.14242916711111</v>
+        <v>-15.45</v>
       </c>
       <c r="H4" t="n">
-        <v>-15.5</v>
+        <v>-55.1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>-32.64242916711111</v>
+        <v>9.299999999999997</v>
       </c>
       <c r="K4" t="n">
-        <v>38.91</v>
+        <v>15.35</v>
       </c>
       <c r="L4" t="n">
-        <v>-7353661.083225883</v>
+        <v>2346403.116714487</v>
       </c>
       <c r="M4" t="n">
-        <v>-2619207.28809984</v>
+        <v>-6815784</v>
       </c>
       <c r="N4" t="n">
-        <v>-2073972.88809984</v>
+        <v>-5595735.600000001</v>
       </c>
       <c r="O4" t="n">
-        <v>15069.59999999998</v>
+        <v>-301320</v>
       </c>
       <c r="P4" t="n">
-        <v>-560304</v>
+        <v>-918728.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>-9972868.371325726</v>
+        <v>-4469380.883285512</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B5" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -698,46 +698,46 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>744</v>
+        <v>672</v>
       </c>
       <c r="E5" t="n">
-        <v>-25.00186822589247</v>
+        <v>-32.23999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.5648400000000002</v>
+        <v>-15</v>
       </c>
       <c r="G5" t="n">
-        <v>-24.43702822589247</v>
+        <v>-17.24</v>
       </c>
       <c r="H5" t="n">
-        <v>-30.5</v>
+        <v>-55.48</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>-31.93702822589247</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>37.43516</v>
+        <v>14.7</v>
       </c>
       <c r="L5" t="n">
-        <v>-3877333.793863412</v>
+        <v>2370968.96735502</v>
       </c>
       <c r="M5" t="n">
-        <v>-5738073.145677392</v>
+        <v>-6407829.12</v>
       </c>
       <c r="N5" t="n">
-        <v>-5171372.422797393</v>
+        <v>-5351324.160000002</v>
       </c>
       <c r="O5" t="n">
-        <v>-9665.542079999985</v>
+        <v>-272160</v>
       </c>
       <c r="P5" t="n">
-        <v>-557035.1808</v>
+        <v>-784344.9600000001</v>
       </c>
       <c r="Q5" t="n">
-        <v>-9615406.939540802</v>
+        <v>-4036860.152644979</v>
       </c>
     </row>
     <row r="6">
@@ -745,7 +745,7 @@
         <v>2026</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -756,43 +756,43 @@
         <v>744</v>
       </c>
       <c r="E6" t="n">
-        <v>-21.45</v>
+        <v>-29.93</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>-15</v>
       </c>
       <c r="G6" t="n">
-        <v>-23.45</v>
+        <v>-14.93</v>
       </c>
       <c r="H6" t="n">
-        <v>-63.1</v>
+        <v>-55.13</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>9.299999999999997</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>32.35</v>
+        <v>16</v>
       </c>
       <c r="L6" t="n">
-        <v>1318935.414203487</v>
+        <v>2274316.956714487</v>
       </c>
       <c r="M6" t="n">
-        <v>-5635800</v>
+        <v>-6743697.84</v>
       </c>
       <c r="N6" t="n">
-        <v>-3989700</v>
+        <v>-5500176.240000001</v>
       </c>
       <c r="O6" t="n">
-        <v>40176</v>
+        <v>-301320</v>
       </c>
       <c r="P6" t="n">
-        <v>-1686276</v>
+        <v>-942201.6</v>
       </c>
       <c r="Q6" t="n">
-        <v>-4316864.585796515</v>
+        <v>-4469380.883285512</v>
       </c>
     </row>
     <row r="7">
@@ -800,7 +800,7 @@
         <v>2026</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -808,46 +808,46 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>672</v>
+        <v>720</v>
       </c>
       <c r="E7" t="n">
-        <v>-23.24</v>
+        <v>-28.41</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>-15</v>
       </c>
       <c r="G7" t="n">
-        <v>-25.24</v>
+        <v>-13.41</v>
       </c>
       <c r="H7" t="n">
-        <v>-63.48</v>
+        <v>-54.21</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>8.539999999999999</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>31.7</v>
+        <v>16.1</v>
       </c>
       <c r="L7" t="n">
-        <v>1447933.303151536</v>
+        <v>1949715.093594665</v>
       </c>
       <c r="M7" t="n">
-        <v>-5347036.8</v>
+        <v>-6274922.4</v>
       </c>
       <c r="N7" t="n">
-        <v>-3904320</v>
+        <v>-5052434.400000001</v>
       </c>
       <c r="O7" t="n">
-        <v>36288</v>
+        <v>-291600</v>
       </c>
       <c r="P7" t="n">
-        <v>-1479004.8</v>
+        <v>-930888</v>
       </c>
       <c r="Q7" t="n">
-        <v>-3899103.496848463</v>
+        <v>-4325207.306405335</v>
       </c>
     </row>
     <row r="8">
@@ -855,7 +855,7 @@
         <v>2026</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -866,43 +866,43 @@
         <v>744</v>
       </c>
       <c r="E8" t="n">
-        <v>-20.93</v>
+        <v>-28.83000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>2</v>
+        <v>-15</v>
       </c>
       <c r="G8" t="n">
-        <v>-22.93</v>
+        <v>-13.83000000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>-63.13</v>
+        <v>-53.59</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>9.199999999999999</v>
+        <v>10.66</v>
       </c>
       <c r="K8" t="n">
-        <v>33</v>
+        <v>14.1</v>
       </c>
       <c r="L8" t="n">
-        <v>1248627.414203487</v>
+        <v>2040046.236714486</v>
       </c>
       <c r="M8" t="n">
-        <v>-5565492</v>
+        <v>-6509427.119999999</v>
       </c>
       <c r="N8" t="n">
-        <v>-3892980</v>
+        <v>-5298031.440000001</v>
       </c>
       <c r="O8" t="n">
-        <v>40176</v>
+        <v>-301320</v>
       </c>
       <c r="P8" t="n">
-        <v>-1712688</v>
+        <v>-910075.6800000002</v>
       </c>
       <c r="Q8" t="n">
-        <v>-4316864.585796515</v>
+        <v>-4469380.883285512</v>
       </c>
     </row>
     <row r="9">
@@ -910,7 +910,7 @@
         <v>2026</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -921,43 +921,43 @@
         <v>720</v>
       </c>
       <c r="E9" t="n">
-        <v>-19.41</v>
+        <v>-29</v>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>-15</v>
       </c>
       <c r="G9" t="n">
-        <v>-21.41</v>
+        <v>-14</v>
       </c>
       <c r="H9" t="n">
-        <v>-62.21</v>
+        <v>-53.32</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>9.699999999999999</v>
+        <v>11.42</v>
       </c>
       <c r="K9" t="n">
-        <v>33.1</v>
+        <v>12.9</v>
       </c>
       <c r="L9" t="n">
-        <v>951669.1105195042</v>
+        <v>1979933.493594665</v>
       </c>
       <c r="M9" t="n">
-        <v>-5129280</v>
+        <v>-6305140.8</v>
       </c>
       <c r="N9" t="n">
-        <v>-3493800</v>
+        <v>-5157360.000000001</v>
       </c>
       <c r="O9" t="n">
-        <v>38880</v>
+        <v>-291600</v>
       </c>
       <c r="P9" t="n">
-        <v>-1674360</v>
+        <v>-856180.8</v>
       </c>
       <c r="Q9" t="n">
-        <v>-4177610.889480497</v>
+        <v>-4325207.306405335</v>
       </c>
     </row>
     <row r="10">
@@ -965,7 +965,7 @@
         <v>2026</v>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -976,43 +976,43 @@
         <v>744</v>
       </c>
       <c r="E10" t="n">
-        <v>-19.83000000000001</v>
+        <v>-29.58</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>-15</v>
       </c>
       <c r="G10" t="n">
-        <v>-21.83000000000001</v>
+        <v>-14.58</v>
       </c>
       <c r="H10" t="n">
-        <v>-61.59</v>
+        <v>-53.26</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>10.66</v>
+        <v>11.38</v>
       </c>
       <c r="K10" t="n">
-        <v>31.1</v>
+        <v>12.3</v>
       </c>
       <c r="L10" t="n">
-        <v>997229.8142034872</v>
+        <v>2126714.796714487</v>
       </c>
       <c r="M10" t="n">
-        <v>-5314094.4</v>
+        <v>-6596095.68</v>
       </c>
       <c r="N10" t="n">
-        <v>-3688380</v>
+        <v>-5435857.440000001</v>
       </c>
       <c r="O10" t="n">
-        <v>40176</v>
+        <v>-301320</v>
       </c>
       <c r="P10" t="n">
-        <v>-1665890.4</v>
+        <v>-858918.2399999999</v>
       </c>
       <c r="Q10" t="n">
-        <v>-4316864.585796515</v>
+        <v>-4469380.883285512</v>
       </c>
     </row>
     <row r="11">
@@ -1020,7 +1020,7 @@
         <v>2026</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1028,46 +1028,46 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>720</v>
+        <v>744</v>
       </c>
       <c r="E11" t="n">
-        <v>-20</v>
+        <v>-31.01</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>-15</v>
       </c>
       <c r="G11" t="n">
-        <v>-22</v>
+        <v>-16.01</v>
       </c>
       <c r="H11" t="n">
-        <v>-61.32</v>
+        <v>-53.61</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>11.42</v>
+        <v>10.98</v>
       </c>
       <c r="K11" t="n">
-        <v>29.9</v>
+        <v>11.62</v>
       </c>
       <c r="L11" t="n">
-        <v>962973.1105195042</v>
+        <v>2318783.374473254</v>
       </c>
       <c r="M11" t="n">
-        <v>-5140584</v>
+        <v>-6818559.12</v>
       </c>
       <c r="N11" t="n">
-        <v>-3600000</v>
+        <v>-5698645.680000002</v>
       </c>
       <c r="O11" t="n">
-        <v>38880</v>
+        <v>-301320</v>
       </c>
       <c r="P11" t="n">
-        <v>-1579464</v>
+        <v>-818593.4399999999</v>
       </c>
       <c r="Q11" t="n">
-        <v>-4177610.889480497</v>
+        <v>-4499775.745526745</v>
       </c>
     </row>
     <row r="12">
@@ -1075,7 +1075,7 @@
         <v>2026</v>
       </c>
       <c r="B12" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1083,46 +1083,46 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>744</v>
+        <v>720</v>
       </c>
       <c r="E12" t="n">
-        <v>-20.58</v>
+        <v>-32.13</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>-15</v>
       </c>
       <c r="G12" t="n">
-        <v>-22.58</v>
+        <v>-17.13</v>
       </c>
       <c r="H12" t="n">
-        <v>-61.26</v>
+        <v>-54.23</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>11.38</v>
+        <v>9.899999999999999</v>
       </c>
       <c r="K12" t="n">
-        <v>29.3</v>
+        <v>12.2</v>
       </c>
       <c r="L12" t="n">
-        <v>1075126.614203486</v>
+        <v>2433473.510780567</v>
       </c>
       <c r="M12" t="n">
-        <v>-5391991.2</v>
+        <v>-6788095.2</v>
       </c>
       <c r="N12" t="n">
-        <v>-3827880</v>
+        <v>-5713999.200000001</v>
       </c>
       <c r="O12" t="n">
-        <v>40176</v>
+        <v>-291600</v>
       </c>
       <c r="P12" t="n">
-        <v>-1604287.2</v>
+        <v>-782496</v>
       </c>
       <c r="Q12" t="n">
-        <v>-4316864.585796515</v>
+        <v>-4354621.689219432</v>
       </c>
     </row>
     <row r="13">
@@ -1130,7 +1130,7 @@
         <v>2026</v>
       </c>
       <c r="B13" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1141,43 +1141,43 @@
         <v>744</v>
       </c>
       <c r="E13" t="n">
-        <v>-22.01</v>
+        <v>-32</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>-15</v>
       </c>
       <c r="G13" t="n">
-        <v>-24.01</v>
+        <v>-17</v>
       </c>
       <c r="H13" t="n">
-        <v>-61.61</v>
+        <v>-54.54</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>10.98</v>
+        <v>9.139999999999997</v>
       </c>
       <c r="K13" t="n">
-        <v>28.62</v>
+        <v>13.4</v>
       </c>
       <c r="L13" t="n">
-        <v>1300335.414203487</v>
+        <v>2516054.974473254</v>
       </c>
       <c r="M13" t="n">
-        <v>-5617200</v>
+        <v>-7015830.72</v>
       </c>
       <c r="N13" t="n">
-        <v>-4093860</v>
+        <v>-5880576</v>
       </c>
       <c r="O13" t="n">
-        <v>40176</v>
+        <v>-301320</v>
       </c>
       <c r="P13" t="n">
-        <v>-1563516</v>
+        <v>-833934.72</v>
       </c>
       <c r="Q13" t="n">
-        <v>-4316864.585796515</v>
+        <v>-4499775.745526745</v>
       </c>
     </row>
     <row r="14">
@@ -1185,7 +1185,7 @@
         <v>2026</v>
       </c>
       <c r="B14" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1196,43 +1196,43 @@
         <v>720</v>
       </c>
       <c r="E14" t="n">
-        <v>-23.13</v>
+        <v>-30.48</v>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>-15</v>
       </c>
       <c r="G14" t="n">
-        <v>-25.13</v>
+        <v>-15.48</v>
       </c>
       <c r="H14" t="n">
-        <v>-62.23</v>
+        <v>-54.5</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>9.899999999999999</v>
+        <v>9.219999999999999</v>
       </c>
       <c r="K14" t="n">
-        <v>29.2</v>
+        <v>14.8</v>
       </c>
       <c r="L14" t="n">
-        <v>1457829.110519504</v>
+        <v>2222434.310780568</v>
       </c>
       <c r="M14" t="n">
-        <v>-5635440</v>
+        <v>-6577056</v>
       </c>
       <c r="N14" t="n">
-        <v>-4163400</v>
+        <v>-5420563.200000001</v>
       </c>
       <c r="O14" t="n">
-        <v>38880</v>
+        <v>-291600</v>
       </c>
       <c r="P14" t="n">
-        <v>-1510920</v>
+        <v>-864892.8</v>
       </c>
       <c r="Q14" t="n">
-        <v>-4177610.889480497</v>
+        <v>-4354621.689219432</v>
       </c>
     </row>
     <row r="15">
@@ -1240,7 +1240,7 @@
         <v>2026</v>
       </c>
       <c r="B15" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1251,153 +1251,153 @@
         <v>744</v>
       </c>
       <c r="E15" t="n">
-        <v>-23</v>
+        <v>-30.85</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>-15</v>
       </c>
       <c r="G15" t="n">
-        <v>-25</v>
+        <v>-15.85</v>
       </c>
       <c r="H15" t="n">
-        <v>-62.54</v>
+        <v>-54.71</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>9.139999999999997</v>
+        <v>9.259999999999998</v>
       </c>
       <c r="K15" t="n">
-        <v>30.4</v>
+        <v>14.6</v>
       </c>
       <c r="L15" t="n">
-        <v>1516021.014203486</v>
+        <v>2357575.534473254</v>
       </c>
       <c r="M15" t="n">
-        <v>-5832885.6</v>
+        <v>-6857351.279999999</v>
       </c>
       <c r="N15" t="n">
-        <v>-4278000</v>
+        <v>-5669242.800000002</v>
       </c>
       <c r="O15" t="n">
-        <v>40176</v>
+        <v>-301320</v>
       </c>
       <c r="P15" t="n">
-        <v>-1595061.6</v>
+        <v>-886788.48</v>
       </c>
       <c r="Q15" t="n">
-        <v>-4316864.585796515</v>
+        <v>-4499775.745526745</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="B16" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>a0</t>
+          <t>a1</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>720</v>
+        <v>744</v>
       </c>
       <c r="E16" t="n">
-        <v>-21.48</v>
+        <v>-0.4500000000000028</v>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>-23.48</v>
+        <v>-0.4500000000000028</v>
       </c>
       <c r="H16" t="n">
-        <v>-62.5</v>
+        <v>-35.1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>9.219999999999999</v>
+        <v>19.3</v>
       </c>
       <c r="K16" t="n">
-        <v>31.8</v>
+        <v>15.35</v>
       </c>
       <c r="L16" t="n">
-        <v>1256013.110519504</v>
+        <v>-2195700.614656855</v>
       </c>
       <c r="M16" t="n">
-        <v>-5433624</v>
+        <v>-827328</v>
       </c>
       <c r="N16" t="n">
-        <v>-3866400</v>
+        <v>-68634</v>
       </c>
       <c r="O16" t="n">
-        <v>38880</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>-1606104</v>
+        <v>-758694</v>
       </c>
       <c r="Q16" t="n">
-        <v>-4177610.889480497</v>
+        <v>-3023028.614656855</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="B17" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>a0</t>
+          <t>a1</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>744</v>
+        <v>672</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.85</v>
+        <v>-2.239999999999995</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-23.85</v>
+        <v>-2.239999999999995</v>
       </c>
       <c r="H17" t="n">
-        <v>-62.71</v>
+        <v>-35.48</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>9.259999999999998</v>
+        <v>18.54</v>
       </c>
       <c r="K17" t="n">
-        <v>31.6</v>
+        <v>14.7</v>
       </c>
       <c r="L17" t="n">
-        <v>1358813.814203487</v>
+        <v>-1764679.058399741</v>
       </c>
       <c r="M17" t="n">
-        <v>-5675678.4</v>
+        <v>-965798.3999999999</v>
       </c>
       <c r="N17" t="n">
-        <v>-4064100</v>
+        <v>-308582.4000000004</v>
       </c>
       <c r="O17" t="n">
-        <v>40176</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>-1651754.4</v>
+        <v>-657216</v>
       </c>
       <c r="Q17" t="n">
-        <v>-4316864.585796515</v>
+        <v>-2730477.458399741</v>
       </c>
     </row>
     <row r="18">
@@ -1405,7 +1405,7 @@
         <v>2027</v>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1416,43 +1416,43 @@
         <v>744</v>
       </c>
       <c r="E18" t="n">
-        <v>6.549999999999997</v>
+        <v>0.06999999999999318</v>
       </c>
       <c r="F18" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.4500000000000028</v>
+        <v>0.06999999999999318</v>
       </c>
       <c r="H18" t="n">
-        <v>-35.1</v>
+        <v>-35.13</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="K18" t="n">
-        <v>22.35</v>
+        <v>16</v>
       </c>
       <c r="L18" t="n">
-        <v>-3216942.72320749</v>
+        <v>-2259945.014656856</v>
       </c>
       <c r="M18" t="n">
-        <v>476718</v>
+        <v>-763083.5999999996</v>
       </c>
       <c r="N18" t="n">
-        <v>1023372</v>
+        <v>10676.40000000037</v>
       </c>
       <c r="O18" t="n">
-        <v>156240</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>-702894</v>
+        <v>-773760</v>
       </c>
       <c r="Q18" t="n">
-        <v>-2740224.723207489</v>
+        <v>-3023028.614656855</v>
       </c>
     </row>
     <row r="19">
@@ -1460,7 +1460,7 @@
         <v>2027</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1468,46 +1468,46 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>672</v>
+        <v>720</v>
       </c>
       <c r="E19" t="n">
-        <v>4.760000000000005</v>
+        <v>1.590000000000003</v>
       </c>
       <c r="F19" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>-2.239999999999995</v>
+        <v>1.590000000000003</v>
       </c>
       <c r="H19" t="n">
-        <v>-35.48</v>
+        <v>-34.21</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>18.54</v>
+        <v>19.7</v>
       </c>
       <c r="K19" t="n">
-        <v>21.7</v>
+        <v>16.1</v>
       </c>
       <c r="L19" t="n">
-        <v>-2674155.285477732</v>
+        <v>-2399875.56257115</v>
       </c>
       <c r="M19" t="n">
-        <v>199113.6000000006</v>
+        <v>-525636</v>
       </c>
       <c r="N19" t="n">
-        <v>671731.2000000002</v>
+        <v>234684</v>
       </c>
       <c r="O19" t="n">
-        <v>141120</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>-613737.6</v>
+        <v>-760320</v>
       </c>
       <c r="Q19" t="n">
-        <v>-2475041.685477732</v>
+        <v>-2925511.562571151</v>
       </c>
     </row>
     <row r="20">
@@ -1515,7 +1515,7 @@
         <v>2027</v>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1526,43 +1526,43 @@
         <v>744</v>
       </c>
       <c r="E20" t="n">
-        <v>7.069999999999993</v>
+        <v>1.169999999999995</v>
       </c>
       <c r="F20" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.06999999999999318</v>
+        <v>1.169999999999995</v>
       </c>
       <c r="H20" t="n">
-        <v>-35.13</v>
+        <v>-33.59</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>19.2</v>
+        <v>20.66</v>
       </c>
       <c r="K20" t="n">
-        <v>23</v>
+        <v>14.1</v>
       </c>
       <c r="L20" t="n">
-        <v>-3287585.52320749</v>
+        <v>-2450037.014656856</v>
       </c>
       <c r="M20" t="n">
-        <v>547360.7999999998</v>
+        <v>-572991.5999999996</v>
       </c>
       <c r="N20" t="n">
-        <v>1104616.8</v>
+        <v>178448.4000000004</v>
       </c>
       <c r="O20" t="n">
-        <v>156240</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>-713496</v>
+        <v>-751440.0000000001</v>
       </c>
       <c r="Q20" t="n">
-        <v>-2740224.723207489</v>
+        <v>-3023028.614656855</v>
       </c>
     </row>
     <row r="21">
@@ -1570,7 +1570,7 @@
         <v>2027</v>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1581,43 +1581,43 @@
         <v>720</v>
       </c>
       <c r="E21" t="n">
-        <v>8.590000000000003</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.590000000000003</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>-34.21</v>
+        <v>-33.32</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>19.7</v>
+        <v>21.42</v>
       </c>
       <c r="K21" t="n">
-        <v>23.1</v>
+        <v>12.9</v>
       </c>
       <c r="L21" t="n">
-        <v>-3402358.37729757</v>
+        <v>-2362471.56257115</v>
       </c>
       <c r="M21" t="n">
-        <v>750528</v>
+        <v>-563040</v>
       </c>
       <c r="N21" t="n">
-        <v>1298808</v>
+        <v>147600</v>
       </c>
       <c r="O21" t="n">
-        <v>151200</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>-699480</v>
+        <v>-710640</v>
       </c>
       <c r="Q21" t="n">
-        <v>-2651830.37729757</v>
+        <v>-2925511.562571151</v>
       </c>
     </row>
     <row r="22">
@@ -1625,7 +1625,7 @@
         <v>2027</v>
       </c>
       <c r="B22" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1636,43 +1636,43 @@
         <v>744</v>
       </c>
       <c r="E22" t="n">
-        <v>8.169999999999995</v>
+        <v>0.4200000000000017</v>
       </c>
       <c r="F22" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.169999999999995</v>
+        <v>0.4200000000000017</v>
       </c>
       <c r="H22" t="n">
-        <v>-33.59</v>
+        <v>-33.26</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>20.66</v>
+        <v>21.38</v>
       </c>
       <c r="K22" t="n">
-        <v>21.1</v>
+        <v>12.3</v>
       </c>
       <c r="L22" t="n">
-        <v>-3473064.723207491</v>
+        <v>-2369127.014656856</v>
       </c>
       <c r="M22" t="n">
-        <v>732840</v>
+        <v>-653901.5999999996</v>
       </c>
       <c r="N22" t="n">
-        <v>1276480.800000001</v>
+        <v>64058.40000000037</v>
       </c>
       <c r="O22" t="n">
-        <v>156240</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>-699880.8</v>
+        <v>-717960</v>
       </c>
       <c r="Q22" t="n">
-        <v>-2740224.723207489</v>
+        <v>-3023028.614656855</v>
       </c>
     </row>
     <row r="23">
@@ -1680,7 +1680,7 @@
         <v>2027</v>
       </c>
       <c r="B23" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1688,46 +1688,46 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>720</v>
+        <v>744</v>
       </c>
       <c r="E23" t="n">
-        <v>8</v>
+        <v>-1.009999999999998</v>
       </c>
       <c r="F23" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>-1.009999999999998</v>
       </c>
       <c r="H23" t="n">
-        <v>-33.32</v>
+        <v>-33.61</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>21.42</v>
+        <v>20.98</v>
       </c>
       <c r="K23" t="n">
-        <v>19.9</v>
+        <v>11.62</v>
       </c>
       <c r="L23" t="n">
-        <v>-3345982.37729757</v>
+        <v>-2176170.614656856</v>
       </c>
       <c r="M23" t="n">
-        <v>694152</v>
+        <v>-846858</v>
       </c>
       <c r="N23" t="n">
-        <v>1209600</v>
+        <v>-154045.2000000002</v>
       </c>
       <c r="O23" t="n">
-        <v>151200</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>-666648</v>
+        <v>-692812.7999999998</v>
       </c>
       <c r="Q23" t="n">
-        <v>-2651830.37729757</v>
+        <v>-3023028.614656855</v>
       </c>
     </row>
     <row r="24">
@@ -1735,7 +1735,7 @@
         <v>2027</v>
       </c>
       <c r="B24" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1743,46 +1743,46 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>744</v>
+        <v>720</v>
       </c>
       <c r="E24" t="n">
-        <v>7.420000000000002</v>
+        <v>-2.129999999999995</v>
       </c>
       <c r="F24" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4200000000000017</v>
+        <v>-2.129999999999995</v>
       </c>
       <c r="H24" t="n">
-        <v>-33.26</v>
+        <v>-34.23</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>21.38</v>
+        <v>19.9</v>
       </c>
       <c r="K24" t="n">
-        <v>19.3</v>
+        <v>12.2</v>
       </c>
       <c r="L24" t="n">
-        <v>-3378651.123207489</v>
+        <v>-1945483.56257115</v>
       </c>
       <c r="M24" t="n">
-        <v>638426.3999999994</v>
+        <v>-980028</v>
       </c>
       <c r="N24" t="n">
-        <v>1159300.8</v>
+        <v>-314388</v>
       </c>
       <c r="O24" t="n">
-        <v>156240</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>-677114.4</v>
+        <v>-665640</v>
       </c>
       <c r="Q24" t="n">
-        <v>-2740224.723207489</v>
+        <v>-2925511.562571151</v>
       </c>
     </row>
     <row r="25">
@@ -1790,7 +1790,7 @@
         <v>2027</v>
       </c>
       <c r="B25" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1801,43 +1801,43 @@
         <v>744</v>
       </c>
       <c r="E25" t="n">
-        <v>5.990000000000002</v>
+        <v>-2</v>
       </c>
       <c r="F25" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>-1.009999999999998</v>
+        <v>-2</v>
       </c>
       <c r="H25" t="n">
-        <v>-33.61</v>
+        <v>-34.54</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>20.98</v>
+        <v>19.14</v>
       </c>
       <c r="K25" t="n">
-        <v>18.62</v>
+        <v>13.4</v>
       </c>
       <c r="L25" t="n">
-        <v>-3173827.92320749</v>
+        <v>-2013048.614656854</v>
       </c>
       <c r="M25" t="n">
-        <v>433603.1999999993</v>
+        <v>-1009980.000000001</v>
       </c>
       <c r="N25" t="n">
-        <v>935877.5999999996</v>
+        <v>-305040.0000000009</v>
       </c>
       <c r="O25" t="n">
-        <v>156240</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>-658514.4</v>
+        <v>-704940</v>
       </c>
       <c r="Q25" t="n">
-        <v>-2740224.723207489</v>
+        <v>-3023028.614656855</v>
       </c>
     </row>
     <row r="26">
@@ -1845,7 +1845,7 @@
         <v>2027</v>
       </c>
       <c r="B26" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1856,43 +1856,43 @@
         <v>720</v>
       </c>
       <c r="E26" t="n">
-        <v>4.870000000000005</v>
+        <v>-0.480000000000004</v>
       </c>
       <c r="F26" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>-2.129999999999995</v>
+        <v>-0.480000000000004</v>
       </c>
       <c r="H26" t="n">
-        <v>-34.23</v>
+        <v>-34.5</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>19.9</v>
+        <v>19.22</v>
       </c>
       <c r="K26" t="n">
-        <v>19.2</v>
+        <v>14.8</v>
       </c>
       <c r="L26" t="n">
-        <v>-2907214.37729757</v>
+        <v>-2135743.56257115</v>
       </c>
       <c r="M26" t="n">
-        <v>255384</v>
+        <v>-789768</v>
       </c>
       <c r="N26" t="n">
-        <v>736344</v>
+        <v>-70848</v>
       </c>
       <c r="O26" t="n">
-        <v>151200</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>-632160</v>
+        <v>-718920</v>
       </c>
       <c r="Q26" t="n">
-        <v>-2651830.37729757</v>
+        <v>-2925511.562571151</v>
       </c>
     </row>
     <row r="27">
@@ -1900,7 +1900,7 @@
         <v>2027</v>
       </c>
       <c r="B27" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1911,153 +1911,153 @@
         <v>744</v>
       </c>
       <c r="E27" t="n">
-        <v>5</v>
+        <v>-0.8500000000000014</v>
       </c>
       <c r="F27" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>-2</v>
+        <v>-0.8500000000000014</v>
       </c>
       <c r="H27" t="n">
-        <v>-34.54</v>
+        <v>-34.71</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>19.14</v>
+        <v>19.26</v>
       </c>
       <c r="K27" t="n">
-        <v>20.4</v>
+        <v>14.6</v>
       </c>
       <c r="L27" t="n">
-        <v>-3013421.52320749</v>
+        <v>-2154966.614656855</v>
       </c>
       <c r="M27" t="n">
-        <v>273196.8000000007</v>
+        <v>-868062</v>
       </c>
       <c r="N27" t="n">
-        <v>781200</v>
+        <v>-129642</v>
       </c>
       <c r="O27" t="n">
-        <v>156240</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>-664243.2</v>
+        <v>-738420</v>
       </c>
       <c r="Q27" t="n">
-        <v>-2740224.723207489</v>
+        <v>-3023028.614656855</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="B28" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>a1</t>
+          <t>a2</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>720</v>
+        <v>744</v>
       </c>
       <c r="E28" t="n">
-        <v>6.519999999999996</v>
+        <v>-0.4500000000000028</v>
       </c>
       <c r="F28" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.480000000000004</v>
+        <v>-0.4500000000000028</v>
       </c>
       <c r="H28" t="n">
-        <v>-34.5</v>
+        <v>-35.1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>19.22</v>
+        <v>19.3</v>
       </c>
       <c r="K28" t="n">
-        <v>21.8</v>
+        <v>15.35</v>
       </c>
       <c r="L28" t="n">
-        <v>-3119686.37729757</v>
+        <v>-2477340.717971876</v>
       </c>
       <c r="M28" t="n">
-        <v>467856</v>
+        <v>-380184</v>
       </c>
       <c r="N28" t="n">
-        <v>985824</v>
+        <v>-65286</v>
       </c>
       <c r="O28" t="n">
-        <v>151200</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>-669168</v>
+        <v>-314898</v>
       </c>
       <c r="Q28" t="n">
-        <v>-2651830.37729757</v>
+        <v>-2857524.717971876</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="B29" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>a1</t>
+          <t>a2</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>744</v>
+        <v>696</v>
       </c>
       <c r="E29" t="n">
-        <v>6.149999999999999</v>
+        <v>-2.239999999999995</v>
       </c>
       <c r="F29" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.8500000000000014</v>
+        <v>-2.239999999999995</v>
       </c>
       <c r="H29" t="n">
-        <v>-34.71</v>
+        <v>-35.48</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>19.26</v>
+        <v>18.54</v>
       </c>
       <c r="K29" t="n">
-        <v>21.6</v>
+        <v>14.7</v>
       </c>
       <c r="L29" t="n">
-        <v>-3168991.923207491</v>
+        <v>-2086649.084554338</v>
       </c>
       <c r="M29" t="n">
-        <v>428767.1999999993</v>
+        <v>-586519.1999999993</v>
       </c>
       <c r="N29" t="n">
-        <v>960875.9999999981</v>
+        <v>-304012.7999999998</v>
       </c>
       <c r="O29" t="n">
-        <v>156240</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>-688348.8</v>
+        <v>-282506.4</v>
       </c>
       <c r="Q29" t="n">
-        <v>-2740224.723207489</v>
+        <v>-2673168.284554336</v>
       </c>
     </row>
     <row r="30">
@@ -2065,7 +2065,7 @@
         <v>2028</v>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -2076,43 +2076,43 @@
         <v>744</v>
       </c>
       <c r="E30" t="n">
-        <v>6.549999999999997</v>
+        <v>0.06999999999999318</v>
       </c>
       <c r="F30" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.4500000000000028</v>
+        <v>0.06999999999999318</v>
       </c>
       <c r="H30" t="n">
-        <v>-35.1</v>
+        <v>-35.13</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="K30" t="n">
-        <v>22.35</v>
+        <v>16</v>
       </c>
       <c r="L30" t="n">
-        <v>-3773297.028858003</v>
+        <v>-2546272.317971877</v>
       </c>
       <c r="M30" t="n">
-        <v>684591.5999999996</v>
+        <v>-311252.4000000004</v>
       </c>
       <c r="N30" t="n">
-        <v>916161.5999999996</v>
+        <v>10155.59999999963</v>
       </c>
       <c r="O30" t="n">
-        <v>161448</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>-393018</v>
+        <v>-321408</v>
       </c>
       <c r="Q30" t="n">
-        <v>-3088705.428858003</v>
+        <v>-2857524.717971876</v>
       </c>
     </row>
     <row r="31">
@@ -2120,7 +2120,7 @@
         <v>2028</v>
       </c>
       <c r="B31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -2128,46 +2128,46 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>696</v>
+        <v>720</v>
       </c>
       <c r="E31" t="n">
-        <v>4.760000000000005</v>
+        <v>1.590000000000003</v>
       </c>
       <c r="F31" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>-2.239999999999995</v>
+        <v>1.590000000000003</v>
       </c>
       <c r="H31" t="n">
-        <v>-35.48</v>
+        <v>-34.21</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>18.54</v>
+        <v>19.7</v>
       </c>
       <c r="K31" t="n">
-        <v>21.7</v>
+        <v>16.1</v>
       </c>
       <c r="L31" t="n">
-        <v>-3307716.190867164</v>
+        <v>-2672862.501263107</v>
       </c>
       <c r="M31" t="n">
-        <v>418282.0799999991</v>
+        <v>-92484</v>
       </c>
       <c r="N31" t="n">
-        <v>622836.4800000004</v>
+        <v>223236</v>
       </c>
       <c r="O31" t="n">
-        <v>151032</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>-355586.4</v>
+        <v>-315720</v>
       </c>
       <c r="Q31" t="n">
-        <v>-2889434.110867164</v>
+        <v>-2765346.501263107</v>
       </c>
     </row>
     <row r="32">
@@ -2175,7 +2175,7 @@
         <v>2028</v>
       </c>
       <c r="B32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -2186,43 +2186,43 @@
         <v>744</v>
       </c>
       <c r="E32" t="n">
-        <v>7.069999999999993</v>
+        <v>1.169999999999995</v>
       </c>
       <c r="F32" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.06999999999999318</v>
+        <v>1.169999999999995</v>
       </c>
       <c r="H32" t="n">
-        <v>-35.13</v>
+        <v>-33.59</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>19.2</v>
+        <v>20.66</v>
       </c>
       <c r="K32" t="n">
-        <v>23</v>
+        <v>14.1</v>
       </c>
       <c r="L32" t="n">
-        <v>-3839520.468858003</v>
+        <v>-2716201.917971876</v>
       </c>
       <c r="M32" t="n">
-        <v>750815.0399999991</v>
+        <v>-141322.8000000007</v>
       </c>
       <c r="N32" t="n">
-        <v>988895.0399999991</v>
+        <v>169743.5999999996</v>
       </c>
       <c r="O32" t="n">
-        <v>161448</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>-399528</v>
+        <v>-311066.4</v>
       </c>
       <c r="Q32" t="n">
-        <v>-3088705.428858003</v>
+        <v>-2857524.717971876</v>
       </c>
     </row>
     <row r="33">
@@ -2230,7 +2230,7 @@
         <v>2028</v>
       </c>
       <c r="B33" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -2241,43 +2241,43 @@
         <v>720</v>
       </c>
       <c r="E33" t="n">
-        <v>8.590000000000003</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.590000000000003</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>-34.21</v>
+        <v>-33.32</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>19.7</v>
+        <v>21.42</v>
       </c>
       <c r="K33" t="n">
-        <v>23.1</v>
+        <v>12.9</v>
       </c>
       <c r="L33" t="n">
-        <v>-3916732.169862583</v>
+        <v>-2612202.501263107</v>
       </c>
       <c r="M33" t="n">
-        <v>927662.4000000004</v>
+        <v>-153144</v>
       </c>
       <c r="N33" t="n">
-        <v>1162742.4</v>
+        <v>140400</v>
       </c>
       <c r="O33" t="n">
-        <v>156240</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>-391320</v>
+        <v>-293544</v>
       </c>
       <c r="Q33" t="n">
-        <v>-2989069.769862582</v>
+        <v>-2765346.501263107</v>
       </c>
     </row>
     <row r="34">
@@ -2285,7 +2285,7 @@
         <v>2028</v>
       </c>
       <c r="B34" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -2296,43 +2296,43 @@
         <v>744</v>
       </c>
       <c r="E34" t="n">
-        <v>8.169999999999995</v>
+        <v>0.4200000000000017</v>
       </c>
       <c r="F34" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.169999999999995</v>
+        <v>0.4200000000000017</v>
       </c>
       <c r="H34" t="n">
-        <v>-33.59</v>
+        <v>-33.26</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>20.66</v>
+        <v>21.38</v>
       </c>
       <c r="K34" t="n">
-        <v>21.1</v>
+        <v>12.3</v>
       </c>
       <c r="L34" t="n">
-        <v>-4003721.268858002</v>
+        <v>-2622123.117971877</v>
       </c>
       <c r="M34" t="n">
-        <v>915015.8399999999</v>
+        <v>-235401.6000000006</v>
       </c>
       <c r="N34" t="n">
-        <v>1142754.239999999</v>
+        <v>60933.59999999963</v>
       </c>
       <c r="O34" t="n">
-        <v>161448</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>-389186.4</v>
+        <v>-296335.2</v>
       </c>
       <c r="Q34" t="n">
-        <v>-3088705.428858003</v>
+        <v>-2857524.717971876</v>
       </c>
     </row>
     <row r="35">
@@ -2340,7 +2340,7 @@
         <v>2028</v>
       </c>
       <c r="B35" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -2348,46 +2348,46 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>720</v>
+        <v>744</v>
       </c>
       <c r="E35" t="n">
-        <v>8</v>
+        <v>-1.009999999999998</v>
       </c>
       <c r="F35" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>-1.009999999999998</v>
       </c>
       <c r="H35" t="n">
-        <v>-33.32</v>
+        <v>-33.61</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>21.42</v>
+        <v>20.98</v>
       </c>
       <c r="K35" t="n">
-        <v>19.9</v>
+        <v>11.62</v>
       </c>
       <c r="L35" t="n">
-        <v>-3859045.769862585</v>
+        <v>-2425223.517971877</v>
       </c>
       <c r="M35" t="n">
-        <v>869976</v>
+        <v>-432301.2000000011</v>
       </c>
       <c r="N35" t="n">
-        <v>1082880</v>
+        <v>-146530.8000000007</v>
       </c>
       <c r="O35" t="n">
-        <v>156240</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>-369144</v>
+        <v>-285770.4</v>
       </c>
       <c r="Q35" t="n">
-        <v>-2989069.769862582</v>
+        <v>-2857524.717971876</v>
       </c>
     </row>
     <row r="36">
@@ -2395,7 +2395,7 @@
         <v>2028</v>
       </c>
       <c r="B36" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -2403,46 +2403,46 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>744</v>
+        <v>720</v>
       </c>
       <c r="E36" t="n">
-        <v>7.420000000000002</v>
+        <v>-2.129999999999995</v>
       </c>
       <c r="F36" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.4200000000000017</v>
+        <v>-2.129999999999995</v>
       </c>
       <c r="H36" t="n">
-        <v>-33.26</v>
+        <v>-34.23</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>21.38</v>
+        <v>19.9</v>
       </c>
       <c r="K36" t="n">
-        <v>19.3</v>
+        <v>12.2</v>
       </c>
       <c r="L36" t="n">
-        <v>-3913548.468858003</v>
+        <v>-2191254.501263106</v>
       </c>
       <c r="M36" t="n">
-        <v>824843.0399999991</v>
+        <v>-574092</v>
       </c>
       <c r="N36" t="n">
-        <v>1037850.239999999</v>
+        <v>-299052</v>
       </c>
       <c r="O36" t="n">
-        <v>161448</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>-374455.2</v>
+        <v>-275040</v>
       </c>
       <c r="Q36" t="n">
-        <v>-3088705.428858003</v>
+        <v>-2765346.501263107</v>
       </c>
     </row>
     <row r="37">
@@ -2450,7 +2450,7 @@
         <v>2028</v>
       </c>
       <c r="B37" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -2461,43 +2461,43 @@
         <v>744</v>
       </c>
       <c r="E37" t="n">
-        <v>5.990000000000002</v>
+        <v>-2</v>
       </c>
       <c r="F37" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.009999999999998</v>
+        <v>-2</v>
       </c>
       <c r="H37" t="n">
-        <v>-33.61</v>
+        <v>-34.54</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>20.98</v>
+        <v>19.14</v>
       </c>
       <c r="K37" t="n">
-        <v>18.62</v>
+        <v>13.4</v>
       </c>
       <c r="L37" t="n">
-        <v>-3724096.308858001</v>
+        <v>-2275419.117971877</v>
       </c>
       <c r="M37" t="n">
-        <v>635390.8799999999</v>
+        <v>-582105.5999999996</v>
       </c>
       <c r="N37" t="n">
-        <v>837833.2800000003</v>
+        <v>-290159.9999999991</v>
       </c>
       <c r="O37" t="n">
-        <v>161448</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>-363890.4</v>
+        <v>-291945.6</v>
       </c>
       <c r="Q37" t="n">
-        <v>-3088705.428858003</v>
+        <v>-2857524.717971876</v>
       </c>
     </row>
     <row r="38">
@@ -2505,7 +2505,7 @@
         <v>2028</v>
       </c>
       <c r="B38" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -2516,43 +2516,43 @@
         <v>720</v>
       </c>
       <c r="E38" t="n">
-        <v>4.870000000000005</v>
+        <v>-0.480000000000004</v>
       </c>
       <c r="F38" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.129999999999995</v>
+        <v>-0.480000000000004</v>
       </c>
       <c r="H38" t="n">
-        <v>-34.23</v>
+        <v>-34.5</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>19.9</v>
+        <v>19.22</v>
       </c>
       <c r="K38" t="n">
-        <v>19.2</v>
+        <v>14.8</v>
       </c>
       <c r="L38" t="n">
-        <v>-3453872.969862583</v>
+        <v>-2399730.501263107</v>
       </c>
       <c r="M38" t="n">
-        <v>464803.2000000002</v>
+        <v>-365616</v>
       </c>
       <c r="N38" t="n">
-        <v>659203.2000000002</v>
+        <v>-67392</v>
       </c>
       <c r="O38" t="n">
-        <v>156240</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>-350640</v>
+        <v>-298224</v>
       </c>
       <c r="Q38" t="n">
-        <v>-2989069.769862582</v>
+        <v>-2765346.501263107</v>
       </c>
     </row>
     <row r="39">
@@ -2560,7 +2560,7 @@
         <v>2028</v>
       </c>
       <c r="B39" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -2571,153 +2571,43 @@
         <v>744</v>
       </c>
       <c r="E39" t="n">
-        <v>5</v>
+        <v>-0.8500000000000014</v>
       </c>
       <c r="F39" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>-2</v>
+        <v>-0.8500000000000014</v>
       </c>
       <c r="H39" t="n">
-        <v>-34.54</v>
+        <v>-34.71</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>19.14</v>
+        <v>19.26</v>
       </c>
       <c r="K39" t="n">
-        <v>20.4</v>
+        <v>14.6</v>
       </c>
       <c r="L39" t="n">
-        <v>-3579447.828858003</v>
+        <v>-2427976.317971876</v>
       </c>
       <c r="M39" t="n">
-        <v>490742.4000000004</v>
+        <v>-429548.4000000004</v>
       </c>
       <c r="N39" t="n">
-        <v>699359.9999999991</v>
+        <v>-123318</v>
       </c>
       <c r="O39" t="n">
-        <v>161448</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>-370065.6</v>
+        <v>-306230.4</v>
       </c>
       <c r="Q39" t="n">
-        <v>-3088705.428858003</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>2028</v>
-      </c>
-      <c r="B40" t="n">
-        <v>11</v>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>a2</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>720</v>
-      </c>
-      <c r="E40" t="n">
-        <v>6.519999999999996</v>
-      </c>
-      <c r="F40" t="n">
-        <v>7</v>
-      </c>
-      <c r="G40" t="n">
-        <v>-0.480000000000004</v>
-      </c>
-      <c r="H40" t="n">
-        <v>-34.5</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>19.22</v>
-      </c>
-      <c r="K40" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="L40" t="n">
-        <v>-3654032.969862584</v>
-      </c>
-      <c r="M40" t="n">
-        <v>664963.2000000002</v>
-      </c>
-      <c r="N40" t="n">
-        <v>882547.2000000002</v>
-      </c>
-      <c r="O40" t="n">
-        <v>156240</v>
-      </c>
-      <c r="P40" t="n">
-        <v>-373824</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>-2989069.769862582</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>2028</v>
-      </c>
-      <c r="B41" t="n">
-        <v>12</v>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>a2</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>744</v>
-      </c>
-      <c r="E41" t="n">
-        <v>6.149999999999999</v>
-      </c>
-      <c r="F41" t="n">
-        <v>7</v>
-      </c>
-      <c r="G41" t="n">
-        <v>-0.8500000000000014</v>
-      </c>
-      <c r="H41" t="n">
-        <v>-34.71</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="K41" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="L41" t="n">
-        <v>-3726015.828858003</v>
-      </c>
-      <c r="M41" t="n">
-        <v>637310.3999999994</v>
-      </c>
-      <c r="N41" t="n">
-        <v>860212.7999999998</v>
-      </c>
-      <c r="O41" t="n">
-        <v>161448</v>
-      </c>
-      <c r="P41" t="n">
-        <v>-384350.4</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>-3088705.428858003</v>
+        <v>-2857524.717971876</v>
       </c>
     </row>
   </sheetData>
